--- a/Final Project/AnalysisFiles/Confusion Metrix Q5.xlsx
+++ b/Final Project/AnalysisFiles/Confusion Metrix Q5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucie\Documents\Bethel\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucie\Documents\GitHub\BethelSchool\Final Project\AnalysisFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD94D78-3B82-4909-9AAE-037FD4745366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9F9D61-025A-47AD-A09E-C34D8A1A065F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="450" windowWidth="26100" windowHeight="10110" activeTab="2" xr2:uid="{7FA212CC-6E88-491B-9C00-CBE2D008BBC8}"/>
+    <workbookView xWindow="345" yWindow="810" windowWidth="23025" windowHeight="11865" activeTab="2" xr2:uid="{7FA212CC-6E88-491B-9C00-CBE2D008BBC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Original Model K=1" sheetId="1" r:id="rId1"/>
@@ -204,7 +204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -235,6 +235,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -247,11 +253,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -280,8 +287,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>10058</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238658</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>124082</xdr:rowOff>
     </xdr:to>
@@ -332,8 +339,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>314901</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>543501</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>47898</xdr:rowOff>
     </xdr:to>
@@ -490,7 +497,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>743490</xdr:colOff>
+      <xdr:colOff>210090</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>171713</xdr:rowOff>
     </xdr:to>
@@ -539,7 +546,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>705384</xdr:colOff>
+      <xdr:colOff>171984</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>133608</xdr:rowOff>
     </xdr:to>
@@ -877,23 +884,19 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -915,8 +918,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -925,23 +928,25 @@
       <c r="C3" s="10">
         <v>5</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="8">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="22">
         <v>10</v>
       </c>
       <c r="F3">
         <f>SUM(C3:E3)</f>
         <v>18</v>
       </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="8">
         <v>0</v>
       </c>
       <c r="D4" s="10">
@@ -954,16 +959,18 @@
         <f>SUM(C4:E4)</f>
         <v>96</v>
       </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="21">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="21">
         <v>36</v>
       </c>
       <c r="E5" s="11">
@@ -1009,7 +1016,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E0B2EB6-4F17-4E5E-9A8D-028285CA551E}">
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
@@ -1018,11 +1025,11 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -1045,7 +1052,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1066,7 +1073,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1085,7 +1092,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1137,20 +1144,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BADE46BD-97A3-496A-B997-71C3BAA52E98}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
-      <c r="C1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="15"/>
+      <c r="C1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
@@ -1173,7 +1180,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -1194,7 +1201,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1213,7 +1220,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
+      <c r="A5" s="19"/>
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
@@ -1253,31 +1260,31 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="19"/>
+      <c r="B9" s="15"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="18"/>
+      <c r="B10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="19"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="19"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="18"/>
+      <c r="B14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="19"/>
+      <c r="B15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="19"/>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
+      <c r="B17" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
